--- a/stage2_excels/PD/PD_kfold_three.xlsx
+++ b/stage2_excels/PD/PD_kfold_three.xlsx
@@ -463,47 +463,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hsv_v_median</t>
+          <t>hsv_s_mean</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>xyz_x_percentile_75</t>
+          <t>hsv_v_25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>yuv_y_percentile_75</t>
+          <t>xyz_x_25</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8710909958456815</v>
+        <v>0.7573554650030585</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hsv_v_median</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>luv_l_percentile_75</t>
+          <t>lab_l_mean</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>luv_v_percentile_25</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7966812247202166</v>
+        <v>0.7245095254222651</v>
       </c>
     </row>
     <row r="4">
@@ -514,19 +514,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>luv_l_percentile_75</t>
+          <t>lab_b_25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>luv_v_median</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7966812247202166</v>
+        <v>0.7158659092120281</v>
       </c>
     </row>
     <row r="5">
@@ -537,19 +537,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>luv_l_percentile_75</t>
+          <t>lab_a_median</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>yuv_u_percentile_75</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7966812247201724</v>
+        <v>0.7158659092120281</v>
       </c>
     </row>
     <row r="6">
@@ -560,19 +560,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>luv_l_percentile_75</t>
+          <t>lab_b_median</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>yuv_u_median</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7966812247201724</v>
+        <v>0.7158659092120281</v>
       </c>
     </row>
   </sheetData>
